--- a/2. Báo cáo - giấy tờ/2. Bảo hành/Xuất nhập kho 2025/Nhập kho/Tháng 10/NKBH_Victory_041025.xlsx
+++ b/2. Báo cáo - giấy tờ/2. Bảo hành/Xuất nhập kho 2025/Nhập kho/Tháng 10/NKBH_Victory_041025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\2. Báo cáo - giấy tờ\2. Bảo hành\Xuất nhập kho 2025\Nhập kho\Tháng 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C57BC2-D644-437A-A3CE-B0832B44A335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541A4371-3B59-45D9-B49C-E188524EECB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>STT</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>Người Lập</t>
-  </si>
-  <si>
     <t>(Ký, ghi rõ họ tên)</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
     <t>Trần Thị Thu Hà</t>
   </si>
   <si>
-    <t>Kế Toán Kho</t>
-  </si>
-  <si>
     <t>Đặng Ngọc Mai</t>
   </si>
   <si>
@@ -82,9 +76,6 @@
     <t>Chiếc</t>
   </si>
   <si>
-    <t>TP. KTTH</t>
-  </si>
-  <si>
     <t>Đơn giá</t>
   </si>
   <si>
@@ -100,12 +91,6 @@
     <t>Hà Nội, ngày 04 tháng 10 năm 2025</t>
   </si>
   <si>
-    <t>Đào Văn Thông</t>
-  </si>
-  <si>
-    <t>Trưởng phòng kỹ thuật</t>
-  </si>
-  <si>
     <t>Nhập lại thiết bị lỗi đổi đại lý Victory thu phí</t>
   </si>
   <si>
@@ -113,6 +98,18 @@
   </si>
   <si>
     <t>00320023DB</t>
+  </si>
+  <si>
+    <t>Tp. Kế toán tổng hợp</t>
+  </si>
+  <si>
+    <t>T. Bộ phận bảo hành</t>
+  </si>
+  <si>
+    <t>Kế toán kho</t>
+  </si>
+  <si>
+    <t>Người lập</t>
   </si>
 </sst>
 </file>
@@ -439,6 +436,81 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -448,83 +520,8 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -894,7 +891,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -920,7 +917,7 @@
       <c r="C1" s="39"/>
       <c r="D1" s="40"/>
       <c r="E1" s="32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
@@ -928,7 +925,7 @@
       <c r="I1" s="32"/>
       <c r="J1" s="33"/>
       <c r="K1" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L1" s="30"/>
     </row>
@@ -944,7 +941,7 @@
       <c r="I2" s="34"/>
       <c r="J2" s="35"/>
       <c r="K2" s="30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L2" s="30"/>
     </row>
@@ -960,13 +957,13 @@
       <c r="I3" s="36"/>
       <c r="J3" s="37"/>
       <c r="K3" s="30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L3" s="30"/>
     </row>
     <row r="4" spans="1:17" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
@@ -981,29 +978,29 @@
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:17" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="A5" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:17" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="A6" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -1020,28 +1017,28 @@
       <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="26"/>
+      <c r="B7" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="50"/>
       <c r="D7" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26" t="s">
+      <c r="F7" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="26"/>
+      <c r="K7" s="50"/>
       <c r="L7" s="13" t="s">
         <v>2</v>
       </c>
@@ -1054,26 +1051,26 @@
       <c r="A8" s="17">
         <v>1</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="50" t="s">
-        <v>29</v>
+      <c r="B8" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="48"/>
+        <v>16</v>
+      </c>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="28"/>
       <c r="L8" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
@@ -1106,57 +1103,57 @@
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
-      <c r="H10" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
+      <c r="H10" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
     </row>
     <row r="11" spans="1:17" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25" t="s">
+      <c r="A11" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25" t="s">
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="24"/>
+    </row>
+    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="25"/>
-    </row>
-    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="27"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="23"/>
     </row>
     <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21"/>
@@ -1229,26 +1226,26 @@
       <c r="L17" s="12"/>
     </row>
     <row r="18" spans="1:12" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" s="25"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="24"/>
     </row>
     <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1261,20 +1258,6 @@
     <row r="27" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="E1:J3"/>
-    <mergeCell ref="A1:D3"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="A5:E5"/>
@@ -1291,6 +1274,20 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="E1:J3"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="E12:G12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="1" right="1.5" top="1.5" bottom="1.5" header="0" footer="0"/>
